--- a/observer_output.xlsx
+++ b/observer_output.xlsx
@@ -1020,7 +1020,7 @@
         <v>137</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>138</v>
@@ -1032,7 +1032,7 @@
         <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L6" t="s">
         <v>138</v>
@@ -1044,19 +1044,19 @@
         <v>138</v>
       </c>
       <c r="O6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P6" t="s">
         <v>138</v>
       </c>
       <c r="Q6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R6" t="s">
         <v>138</v>
       </c>
       <c r="S6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1079,13 +1079,13 @@
         <v>137</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
         <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
         <v>138</v>
@@ -1097,7 +1097,7 @@
         <v>138</v>
       </c>
       <c r="M7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N7" t="s">
         <v>138</v>
@@ -1109,7 +1109,7 @@
         <v>138</v>
       </c>
       <c r="Q7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R7" t="s">
         <v>138</v>
@@ -1197,7 +1197,7 @@
         <v>137</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>138</v>
@@ -1209,7 +1209,7 @@
         <v>138</v>
       </c>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s">
         <v>138</v>
@@ -1221,19 +1221,19 @@
         <v>138</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P9" t="s">
         <v>138</v>
       </c>
       <c r="Q9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R9" t="s">
         <v>138</v>
       </c>
       <c r="S9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1256,7 +1256,7 @@
         <v>137</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
         <v>138</v>
@@ -1268,7 +1268,7 @@
         <v>138</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
         <v>138</v>
@@ -1280,19 +1280,19 @@
         <v>138</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P10" t="s">
         <v>138</v>
       </c>
       <c r="Q10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R10" t="s">
         <v>138</v>
       </c>
       <c r="S10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1551,13 +1551,13 @@
         <v>137</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
         <v>138</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
         <v>138</v>
@@ -1569,7 +1569,7 @@
         <v>138</v>
       </c>
       <c r="M15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s">
         <v>138</v>
@@ -1581,7 +1581,7 @@
         <v>138</v>
       </c>
       <c r="Q15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R15" t="s">
         <v>138</v>
@@ -1669,7 +1669,7 @@
         <v>137</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>138</v>
@@ -1681,7 +1681,7 @@
         <v>138</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s">
         <v>138</v>
@@ -1693,7 +1693,7 @@
         <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
         <v>138</v>
@@ -1728,13 +1728,13 @@
         <v>137</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="s">
         <v>138</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
         <v>138</v>
@@ -1752,13 +1752,13 @@
         <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P18" t="s">
         <v>138</v>
       </c>
       <c r="Q18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R18" t="s">
         <v>138</v>
@@ -1846,7 +1846,7 @@
         <v>137</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>138</v>
@@ -1858,7 +1858,7 @@
         <v>138</v>
       </c>
       <c r="K20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s">
         <v>138</v>
@@ -1870,7 +1870,7 @@
         <v>138</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P20" t="s">
         <v>138</v>
@@ -1905,7 +1905,7 @@
         <v>137</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>138</v>
@@ -1917,7 +1917,7 @@
         <v>138</v>
       </c>
       <c r="K21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s">
         <v>138</v>
@@ -1929,7 +1929,7 @@
         <v>138</v>
       </c>
       <c r="O21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P21" t="s">
         <v>138</v>
@@ -1964,13 +1964,13 @@
         <v>137</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J22" t="s">
         <v>138</v>
@@ -1994,7 +1994,7 @@
         <v>138</v>
       </c>
       <c r="Q22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R22" t="s">
         <v>138</v>
@@ -2023,13 +2023,13 @@
         <v>137</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
         <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J23" t="s">
         <v>138</v>
@@ -2053,7 +2053,7 @@
         <v>138</v>
       </c>
       <c r="Q23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R23" t="s">
         <v>138</v>
@@ -2200,13 +2200,13 @@
         <v>137</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H26" t="s">
         <v>138</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J26" t="s">
         <v>138</v>
@@ -2224,13 +2224,13 @@
         <v>138</v>
       </c>
       <c r="O26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P26" t="s">
         <v>138</v>
       </c>
       <c r="Q26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R26" t="s">
         <v>138</v>
@@ -2318,7 +2318,7 @@
         <v>137</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" t="s">
         <v>138</v>
@@ -2330,7 +2330,7 @@
         <v>138</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L28" t="s">
         <v>138</v>
@@ -2342,7 +2342,7 @@
         <v>138</v>
       </c>
       <c r="O28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P28" t="s">
         <v>138</v>
@@ -2377,13 +2377,13 @@
         <v>137</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J29" t="s">
         <v>138</v>
@@ -2401,7 +2401,7 @@
         <v>138</v>
       </c>
       <c r="O29" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s">
         <v>138</v>
@@ -2495,7 +2495,7 @@
         <v>137</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
         <v>138</v>
@@ -2507,7 +2507,7 @@
         <v>138</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s">
         <v>138</v>
@@ -2519,7 +2519,7 @@
         <v>138</v>
       </c>
       <c r="O31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P31" t="s">
         <v>138</v>
@@ -2554,7 +2554,7 @@
         <v>137</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" t="s">
         <v>138</v>
@@ -2566,7 +2566,7 @@
         <v>138</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s">
         <v>138</v>
@@ -2578,7 +2578,7 @@
         <v>138</v>
       </c>
       <c r="O32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P32" t="s">
         <v>138</v>
@@ -2849,13 +2849,13 @@
         <v>137</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
         <v>138</v>
       </c>
       <c r="I37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J37" t="s">
         <v>138</v>
@@ -2873,7 +2873,7 @@
         <v>138</v>
       </c>
       <c r="O37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P37" t="s">
         <v>138</v>
@@ -2967,7 +2967,7 @@
         <v>137</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
         <v>138</v>
@@ -2979,7 +2979,7 @@
         <v>138</v>
       </c>
       <c r="K39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s">
         <v>138</v>
@@ -2991,7 +2991,7 @@
         <v>138</v>
       </c>
       <c r="O39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P39" t="s">
         <v>138</v>
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
         <v>138</v>
       </c>
       <c r="I40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J40" t="s">
         <v>138</v>
@@ -3050,7 +3050,7 @@
         <v>138</v>
       </c>
       <c r="O40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P40" t="s">
         <v>138</v>
@@ -3144,7 +3144,7 @@
         <v>137</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
         <v>138</v>
@@ -3168,7 +3168,7 @@
         <v>138</v>
       </c>
       <c r="O42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P42" t="s">
         <v>138</v>
@@ -3180,7 +3180,7 @@
         <v>138</v>
       </c>
       <c r="S42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3203,7 +3203,7 @@
         <v>137</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H43" t="s">
         <v>138</v>
@@ -3227,7 +3227,7 @@
         <v>138</v>
       </c>
       <c r="O43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P43" t="s">
         <v>138</v>
@@ -3239,7 +3239,7 @@
         <v>138</v>
       </c>
       <c r="S43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -3262,13 +3262,13 @@
         <v>137</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H44" t="s">
         <v>138</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J44" t="s">
         <v>138</v>
@@ -3292,7 +3292,7 @@
         <v>138</v>
       </c>
       <c r="Q44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R44" t="s">
         <v>138</v>
@@ -3321,13 +3321,13 @@
         <v>137</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
         <v>138</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J45" t="s">
         <v>138</v>
@@ -3351,7 +3351,7 @@
         <v>138</v>
       </c>
       <c r="Q45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R45" t="s">
         <v>138</v>
@@ -3498,13 +3498,13 @@
         <v>137</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
         <v>138</v>
       </c>
       <c r="I48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J48" t="s">
         <v>138</v>
@@ -3522,7 +3522,7 @@
         <v>138</v>
       </c>
       <c r="O48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P48" t="s">
         <v>138</v>
@@ -3616,7 +3616,7 @@
         <v>137</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
         <v>138</v>
@@ -3640,7 +3640,7 @@
         <v>138</v>
       </c>
       <c r="O50" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P50" t="s">
         <v>138</v>
@@ -3652,7 +3652,7 @@
         <v>138</v>
       </c>
       <c r="S50" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -3675,7 +3675,7 @@
         <v>137</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51" t="s">
         <v>138</v>
@@ -3693,13 +3693,13 @@
         <v>138</v>
       </c>
       <c r="M51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N51" t="s">
         <v>138</v>
       </c>
       <c r="O51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P51" t="s">
         <v>138</v>
@@ -3793,7 +3793,7 @@
         <v>137</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H53" t="s">
         <v>138</v>
@@ -3817,7 +3817,7 @@
         <v>138</v>
       </c>
       <c r="O53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P53" t="s">
         <v>138</v>
@@ -3829,7 +3829,7 @@
         <v>138</v>
       </c>
       <c r="S53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -3852,7 +3852,7 @@
         <v>137</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
         <v>138</v>
@@ -3876,7 +3876,7 @@
         <v>138</v>
       </c>
       <c r="O54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P54" t="s">
         <v>138</v>
@@ -3888,7 +3888,7 @@
         <v>138</v>
       </c>
       <c r="S54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -4147,7 +4147,7 @@
         <v>137</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
         <v>138</v>
@@ -4165,13 +4165,13 @@
         <v>138</v>
       </c>
       <c r="M59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N59" t="s">
         <v>138</v>
       </c>
       <c r="O59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P59" t="s">
         <v>138</v>
@@ -4265,7 +4265,7 @@
         <v>137</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
         <v>138</v>
@@ -4283,7 +4283,7 @@
         <v>138</v>
       </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N61" t="s">
         <v>138</v>
@@ -4301,7 +4301,7 @@
         <v>138</v>
       </c>
       <c r="S61" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -4324,7 +4324,7 @@
         <v>137</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
         <v>138</v>
@@ -4342,7 +4342,7 @@
         <v>138</v>
       </c>
       <c r="M62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N62" t="s">
         <v>138</v>
@@ -4354,7 +4354,7 @@
         <v>138</v>
       </c>
       <c r="Q62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R62" t="s">
         <v>138</v>
@@ -4442,7 +4442,7 @@
         <v>137</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H64" t="s">
         <v>138</v>
@@ -4460,7 +4460,7 @@
         <v>138</v>
       </c>
       <c r="M64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N64" t="s">
         <v>138</v>
@@ -4478,7 +4478,7 @@
         <v>138</v>
       </c>
       <c r="S64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4501,7 +4501,7 @@
         <v>137</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H65" t="s">
         <v>138</v>
@@ -4519,7 +4519,7 @@
         <v>138</v>
       </c>
       <c r="M65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N65" t="s">
         <v>138</v>
@@ -4537,7 +4537,7 @@
         <v>138</v>
       </c>
       <c r="S65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4560,13 +4560,13 @@
         <v>137</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H66" t="s">
         <v>138</v>
       </c>
       <c r="I66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J66" t="s">
         <v>138</v>
@@ -4590,7 +4590,7 @@
         <v>138</v>
       </c>
       <c r="Q66" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R66" t="s">
         <v>138</v>
@@ -4619,13 +4619,13 @@
         <v>137</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
         <v>138</v>
       </c>
       <c r="I67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J67" t="s">
         <v>138</v>
@@ -4649,7 +4649,7 @@
         <v>138</v>
       </c>
       <c r="Q67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R67" t="s">
         <v>138</v>
@@ -4796,7 +4796,7 @@
         <v>137</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H70" t="s">
         <v>138</v>
@@ -4814,7 +4814,7 @@
         <v>138</v>
       </c>
       <c r="M70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N70" t="s">
         <v>138</v>
@@ -4826,7 +4826,7 @@
         <v>138</v>
       </c>
       <c r="Q70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R70" t="s">
         <v>138</v>
@@ -4914,7 +4914,7 @@
         <v>137</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H72" t="s">
         <v>138</v>
@@ -4932,7 +4932,7 @@
         <v>138</v>
       </c>
       <c r="M72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N72" t="s">
         <v>138</v>
@@ -4950,7 +4950,7 @@
         <v>138</v>
       </c>
       <c r="S72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -4973,7 +4973,7 @@
         <v>137</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="s">
         <v>138</v>
@@ -4991,7 +4991,7 @@
         <v>138</v>
       </c>
       <c r="M73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N73" t="s">
         <v>138</v>
@@ -5003,7 +5003,7 @@
         <v>138</v>
       </c>
       <c r="Q73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R73" t="s">
         <v>138</v>
@@ -5091,7 +5091,7 @@
         <v>137</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H75" t="s">
         <v>138</v>
@@ -5109,7 +5109,7 @@
         <v>138</v>
       </c>
       <c r="M75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N75" t="s">
         <v>138</v>
@@ -5127,7 +5127,7 @@
         <v>138</v>
       </c>
       <c r="S75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -5150,7 +5150,7 @@
         <v>137</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" t="s">
         <v>138</v>
@@ -5168,7 +5168,7 @@
         <v>138</v>
       </c>
       <c r="M76" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N76" t="s">
         <v>138</v>
@@ -5445,7 +5445,7 @@
         <v>137</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="s">
         <v>138</v>
@@ -5463,7 +5463,7 @@
         <v>138</v>
       </c>
       <c r="M81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N81" t="s">
         <v>138</v>
@@ -5475,7 +5475,7 @@
         <v>138</v>
       </c>
       <c r="Q81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R81" t="s">
         <v>138</v>
@@ -5563,7 +5563,7 @@
         <v>137</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H83" t="s">
         <v>138</v>
@@ -5581,7 +5581,7 @@
         <v>138</v>
       </c>
       <c r="M83" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N83" t="s">
         <v>138</v>
@@ -5622,7 +5622,7 @@
         <v>137</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
         <v>138</v>
@@ -5640,7 +5640,7 @@
         <v>138</v>
       </c>
       <c r="M84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N84" t="s">
         <v>138</v>
@@ -5652,7 +5652,7 @@
         <v>138</v>
       </c>
       <c r="Q84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R84" t="s">
         <v>138</v>
@@ -5740,7 +5740,7 @@
         <v>137</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86" t="s">
         <v>138</v>
@@ -5758,7 +5758,7 @@
         <v>138</v>
       </c>
       <c r="M86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N86" t="s">
         <v>138</v>
@@ -5799,7 +5799,7 @@
         <v>137</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" t="s">
         <v>138</v>
@@ -5817,7 +5817,7 @@
         <v>138</v>
       </c>
       <c r="M87" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N87" t="s">
         <v>138</v>
@@ -5858,13 +5858,13 @@
         <v>137</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88" t="s">
         <v>138</v>
       </c>
       <c r="I88" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J88" t="s">
         <v>138</v>
@@ -5888,7 +5888,7 @@
         <v>138</v>
       </c>
       <c r="Q88" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R88" t="s">
         <v>138</v>
@@ -5917,13 +5917,13 @@
         <v>137</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
         <v>138</v>
       </c>
       <c r="I89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J89" t="s">
         <v>138</v>
@@ -5947,7 +5947,7 @@
         <v>138</v>
       </c>
       <c r="Q89" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R89" t="s">
         <v>138</v>
@@ -6094,7 +6094,7 @@
         <v>137</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
         <v>138</v>
@@ -6112,7 +6112,7 @@
         <v>138</v>
       </c>
       <c r="M92" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N92" t="s">
         <v>138</v>
@@ -6124,7 +6124,7 @@
         <v>138</v>
       </c>
       <c r="Q92" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R92" t="s">
         <v>138</v>
@@ -6212,25 +6212,25 @@
         <v>137</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
         <v>138</v>
       </c>
       <c r="I94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J94" t="s">
         <v>138</v>
       </c>
       <c r="K94" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L94" t="s">
         <v>138</v>
       </c>
       <c r="M94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N94" t="s">
         <v>138</v>
@@ -6271,7 +6271,7 @@
         <v>137</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
         <v>138</v>
@@ -6289,7 +6289,7 @@
         <v>138</v>
       </c>
       <c r="M95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N95" t="s">
         <v>138</v>
@@ -6301,7 +6301,7 @@
         <v>138</v>
       </c>
       <c r="Q95" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R95" t="s">
         <v>138</v>
@@ -6389,25 +6389,25 @@
         <v>137</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H97" t="s">
         <v>138</v>
       </c>
       <c r="I97" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J97" t="s">
         <v>138</v>
       </c>
       <c r="K97" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L97" t="s">
         <v>138</v>
       </c>
       <c r="M97" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N97" t="s">
         <v>138</v>
@@ -6448,25 +6448,25 @@
         <v>137</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" t="s">
         <v>138</v>
       </c>
       <c r="I98" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J98" t="s">
         <v>138</v>
       </c>
       <c r="K98" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L98" t="s">
         <v>138</v>
       </c>
       <c r="M98" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N98" t="s">
         <v>138</v>
@@ -6743,7 +6743,7 @@
         <v>137</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>138</v>
@@ -6761,7 +6761,7 @@
         <v>138</v>
       </c>
       <c r="M103" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N103" t="s">
         <v>138</v>
@@ -6773,7 +6773,7 @@
         <v>138</v>
       </c>
       <c r="Q103" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R103" t="s">
         <v>138</v>
@@ -6861,25 +6861,25 @@
         <v>137</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105" t="s">
         <v>138</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J105" t="s">
         <v>138</v>
       </c>
       <c r="K105" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L105" t="s">
         <v>138</v>
       </c>
       <c r="M105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N105" t="s">
         <v>138</v>
@@ -6920,7 +6920,7 @@
         <v>137</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>138</v>
@@ -6938,7 +6938,7 @@
         <v>138</v>
       </c>
       <c r="M106" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N106" t="s">
         <v>138</v>
@@ -6950,7 +6950,7 @@
         <v>138</v>
       </c>
       <c r="Q106" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R106" t="s">
         <v>138</v>
@@ -7038,13 +7038,13 @@
         <v>137</v>
       </c>
       <c r="G108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H108" t="s">
         <v>138</v>
       </c>
       <c r="I108" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J108" t="s">
         <v>138</v>
@@ -7097,13 +7097,13 @@
         <v>137</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H109" t="s">
         <v>138</v>
       </c>
       <c r="I109" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J109" t="s">
         <v>138</v>
@@ -7156,13 +7156,13 @@
         <v>137</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H110" t="s">
         <v>138</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J110" t="s">
         <v>138</v>
@@ -7186,7 +7186,7 @@
         <v>138</v>
       </c>
       <c r="Q110" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R110" t="s">
         <v>138</v>
@@ -7215,13 +7215,13 @@
         <v>137</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H111" t="s">
         <v>138</v>
       </c>
       <c r="I111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J111" t="s">
         <v>138</v>
@@ -7239,19 +7239,19 @@
         <v>138</v>
       </c>
       <c r="O111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P111" t="s">
         <v>138</v>
       </c>
       <c r="Q111" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R111" t="s">
         <v>138</v>
       </c>
       <c r="S111" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -7392,7 +7392,7 @@
         <v>137</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>138</v>
@@ -7410,7 +7410,7 @@
         <v>138</v>
       </c>
       <c r="M114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N114" t="s">
         <v>138</v>
@@ -7422,7 +7422,7 @@
         <v>138</v>
       </c>
       <c r="Q114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R114" t="s">
         <v>138</v>

--- a/observer_output.xlsx
+++ b/observer_output.xlsx
@@ -1020,7 +1020,7 @@
         <v>137</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
         <v>138</v>
@@ -1038,7 +1038,7 @@
         <v>138</v>
       </c>
       <c r="M6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N6" t="s">
         <v>138</v>
@@ -1079,19 +1079,19 @@
         <v>137</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J7" t="s">
         <v>138</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
         <v>138</v>
@@ -1103,13 +1103,13 @@
         <v>138</v>
       </c>
       <c r="O7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P7" t="s">
         <v>138</v>
       </c>
       <c r="Q7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R7" t="s">
         <v>138</v>
@@ -1138,13 +1138,13 @@
         <v>137</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
         <v>138</v>
@@ -1197,7 +1197,7 @@
         <v>137</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>138</v>
@@ -1215,7 +1215,7 @@
         <v>138</v>
       </c>
       <c r="M9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s">
         <v>138</v>
@@ -1256,7 +1256,7 @@
         <v>137</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>138</v>
@@ -1274,7 +1274,7 @@
         <v>138</v>
       </c>
       <c r="M10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s">
         <v>138</v>
@@ -1433,13 +1433,13 @@
         <v>137</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
         <v>138</v>
@@ -1551,19 +1551,19 @@
         <v>137</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
         <v>138</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
         <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s">
         <v>138</v>
@@ -1575,13 +1575,13 @@
         <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P15" t="s">
         <v>138</v>
       </c>
       <c r="Q15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R15" t="s">
         <v>138</v>
@@ -1669,7 +1669,7 @@
         <v>137</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
         <v>138</v>
@@ -1687,7 +1687,7 @@
         <v>138</v>
       </c>
       <c r="M17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N17" t="s">
         <v>138</v>
@@ -1728,13 +1728,13 @@
         <v>137</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
         <v>138</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
         <v>138</v>
@@ -1746,19 +1746,19 @@
         <v>138</v>
       </c>
       <c r="M18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s">
         <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P18" t="s">
         <v>138</v>
       </c>
       <c r="Q18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R18" t="s">
         <v>138</v>
@@ -1787,13 +1787,13 @@
         <v>137</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
         <v>138</v>
@@ -1846,7 +1846,7 @@
         <v>137</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
         <v>138</v>
@@ -1864,7 +1864,7 @@
         <v>138</v>
       </c>
       <c r="M20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N20" t="s">
         <v>138</v>
@@ -1905,7 +1905,7 @@
         <v>137</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>138</v>
@@ -1923,7 +1923,7 @@
         <v>138</v>
       </c>
       <c r="M21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N21" t="s">
         <v>138</v>
@@ -1964,7 +1964,7 @@
         <v>137</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>138</v>
@@ -1982,7 +1982,7 @@
         <v>138</v>
       </c>
       <c r="M22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N22" t="s">
         <v>138</v>
@@ -2023,7 +2023,7 @@
         <v>137</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>138</v>
@@ -2041,13 +2041,13 @@
         <v>138</v>
       </c>
       <c r="M23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N23" t="s">
         <v>138</v>
       </c>
       <c r="O23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P23" t="s">
         <v>138</v>
@@ -2059,7 +2059,7 @@
         <v>138</v>
       </c>
       <c r="S23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2082,13 +2082,13 @@
         <v>137</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J24" t="s">
         <v>138</v>
@@ -2200,13 +2200,13 @@
         <v>137</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
         <v>138</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
         <v>138</v>
@@ -2218,19 +2218,19 @@
         <v>138</v>
       </c>
       <c r="M26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N26" t="s">
         <v>138</v>
       </c>
       <c r="O26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P26" t="s">
         <v>138</v>
       </c>
       <c r="Q26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R26" t="s">
         <v>138</v>
@@ -2318,7 +2318,7 @@
         <v>137</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>138</v>
@@ -2336,7 +2336,7 @@
         <v>138</v>
       </c>
       <c r="M28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N28" t="s">
         <v>138</v>
@@ -2377,13 +2377,13 @@
         <v>137</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
         <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J29" t="s">
         <v>138</v>
@@ -2395,13 +2395,13 @@
         <v>138</v>
       </c>
       <c r="M29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N29" t="s">
         <v>138</v>
       </c>
       <c r="O29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P29" t="s">
         <v>138</v>
@@ -2436,13 +2436,13 @@
         <v>137</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>138</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J30" t="s">
         <v>138</v>
@@ -2495,7 +2495,7 @@
         <v>137</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
         <v>138</v>
@@ -2513,7 +2513,7 @@
         <v>138</v>
       </c>
       <c r="M31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N31" t="s">
         <v>138</v>
@@ -2554,7 +2554,7 @@
         <v>137</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>138</v>
@@ -2572,7 +2572,7 @@
         <v>138</v>
       </c>
       <c r="M32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N32" t="s">
         <v>138</v>
@@ -2731,7 +2731,7 @@
         <v>137</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>138</v>
@@ -2743,7 +2743,7 @@
         <v>138</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s">
         <v>138</v>
@@ -2849,13 +2849,13 @@
         <v>137</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
         <v>138</v>
       </c>
       <c r="I37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J37" t="s">
         <v>138</v>
@@ -2867,13 +2867,13 @@
         <v>138</v>
       </c>
       <c r="M37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N37" t="s">
         <v>138</v>
       </c>
       <c r="O37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P37" t="s">
         <v>138</v>
@@ -2967,7 +2967,7 @@
         <v>137</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" t="s">
         <v>138</v>
@@ -2985,7 +2985,7 @@
         <v>138</v>
       </c>
       <c r="M39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N39" t="s">
         <v>138</v>
@@ -3026,13 +3026,13 @@
         <v>137</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>138</v>
       </c>
       <c r="I40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J40" t="s">
         <v>138</v>
@@ -3044,13 +3044,13 @@
         <v>138</v>
       </c>
       <c r="M40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N40" t="s">
         <v>138</v>
       </c>
       <c r="O40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P40" t="s">
         <v>138</v>
@@ -3085,7 +3085,7 @@
         <v>137</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>138</v>
@@ -3097,7 +3097,7 @@
         <v>138</v>
       </c>
       <c r="K41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s">
         <v>138</v>
@@ -3144,7 +3144,7 @@
         <v>137</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
         <v>138</v>
@@ -3162,7 +3162,7 @@
         <v>138</v>
       </c>
       <c r="M42" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N42" t="s">
         <v>138</v>
@@ -3203,7 +3203,7 @@
         <v>137</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>138</v>
@@ -3221,7 +3221,7 @@
         <v>138</v>
       </c>
       <c r="M43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N43" t="s">
         <v>138</v>
@@ -3262,7 +3262,7 @@
         <v>137</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>138</v>
@@ -3280,7 +3280,7 @@
         <v>138</v>
       </c>
       <c r="M44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N44" t="s">
         <v>138</v>
@@ -3321,7 +3321,7 @@
         <v>137</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>138</v>
@@ -3339,13 +3339,13 @@
         <v>138</v>
       </c>
       <c r="M45" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N45" t="s">
         <v>138</v>
       </c>
       <c r="O45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P45" t="s">
         <v>138</v>
@@ -3357,7 +3357,7 @@
         <v>138</v>
       </c>
       <c r="S45" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3380,7 +3380,7 @@
         <v>137</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>138</v>
@@ -3398,7 +3398,7 @@
         <v>138</v>
       </c>
       <c r="M46" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N46" t="s">
         <v>138</v>
@@ -3498,13 +3498,13 @@
         <v>137</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
         <v>138</v>
       </c>
       <c r="I48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J48" t="s">
         <v>138</v>
@@ -3516,13 +3516,13 @@
         <v>138</v>
       </c>
       <c r="M48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N48" t="s">
         <v>138</v>
       </c>
       <c r="O48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P48" t="s">
         <v>138</v>
@@ -3616,7 +3616,7 @@
         <v>137</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
         <v>138</v>
@@ -3634,7 +3634,7 @@
         <v>138</v>
       </c>
       <c r="M50" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N50" t="s">
         <v>138</v>
@@ -3675,13 +3675,13 @@
         <v>137</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51" t="s">
         <v>138</v>
       </c>
       <c r="I51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J51" t="s">
         <v>138</v>
@@ -3693,13 +3693,13 @@
         <v>138</v>
       </c>
       <c r="M51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N51" t="s">
         <v>138</v>
       </c>
       <c r="O51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P51" t="s">
         <v>138</v>
@@ -3734,7 +3734,7 @@
         <v>137</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>138</v>
@@ -3752,7 +3752,7 @@
         <v>138</v>
       </c>
       <c r="M52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N52" t="s">
         <v>138</v>
@@ -3793,7 +3793,7 @@
         <v>137</v>
       </c>
       <c r="G53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>138</v>
@@ -3811,7 +3811,7 @@
         <v>138</v>
       </c>
       <c r="M53" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N53" t="s">
         <v>138</v>
@@ -3852,7 +3852,7 @@
         <v>137</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
         <v>138</v>
@@ -3870,7 +3870,7 @@
         <v>138</v>
       </c>
       <c r="M54" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N54" t="s">
         <v>138</v>
@@ -4029,7 +4029,7 @@
         <v>137</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>138</v>
@@ -4053,7 +4053,7 @@
         <v>138</v>
       </c>
       <c r="O57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P57" t="s">
         <v>138</v>
@@ -4147,13 +4147,13 @@
         <v>137</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" t="s">
         <v>138</v>
       </c>
       <c r="I59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J59" t="s">
         <v>138</v>
@@ -4165,13 +4165,13 @@
         <v>138</v>
       </c>
       <c r="M59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N59" t="s">
         <v>138</v>
       </c>
       <c r="O59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P59" t="s">
         <v>138</v>
@@ -4265,7 +4265,7 @@
         <v>137</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
         <v>138</v>
@@ -4283,7 +4283,7 @@
         <v>138</v>
       </c>
       <c r="M61" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N61" t="s">
         <v>138</v>
@@ -4324,13 +4324,13 @@
         <v>137</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" t="s">
         <v>138</v>
       </c>
       <c r="I62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J62" t="s">
         <v>138</v>
@@ -4342,13 +4342,13 @@
         <v>138</v>
       </c>
       <c r="M62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N62" t="s">
         <v>138</v>
       </c>
       <c r="O62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P62" t="s">
         <v>138</v>
@@ -4383,7 +4383,7 @@
         <v>137</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>138</v>
@@ -4407,7 +4407,7 @@
         <v>138</v>
       </c>
       <c r="O63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P63" t="s">
         <v>138</v>
@@ -4442,7 +4442,7 @@
         <v>137</v>
       </c>
       <c r="G64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>138</v>
@@ -4460,7 +4460,7 @@
         <v>138</v>
       </c>
       <c r="M64" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N64" t="s">
         <v>138</v>
@@ -4501,7 +4501,7 @@
         <v>137</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" t="s">
         <v>138</v>
@@ -4519,7 +4519,7 @@
         <v>138</v>
       </c>
       <c r="M65" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N65" t="s">
         <v>138</v>
@@ -4560,7 +4560,7 @@
         <v>137</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>138</v>
@@ -4578,7 +4578,7 @@
         <v>138</v>
       </c>
       <c r="M66" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N66" t="s">
         <v>138</v>
@@ -4619,7 +4619,7 @@
         <v>137</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>138</v>
@@ -4637,7 +4637,7 @@
         <v>138</v>
       </c>
       <c r="M67" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N67" t="s">
         <v>138</v>
@@ -4678,7 +4678,7 @@
         <v>137</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>138</v>
@@ -4702,7 +4702,7 @@
         <v>138</v>
       </c>
       <c r="O68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P68" t="s">
         <v>138</v>
@@ -4796,13 +4796,13 @@
         <v>137</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H70" t="s">
         <v>138</v>
       </c>
       <c r="I70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J70" t="s">
         <v>138</v>
@@ -4814,13 +4814,13 @@
         <v>138</v>
       </c>
       <c r="M70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N70" t="s">
         <v>138</v>
       </c>
       <c r="O70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P70" t="s">
         <v>138</v>
@@ -4914,7 +4914,7 @@
         <v>137</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>138</v>
@@ -4932,7 +4932,7 @@
         <v>138</v>
       </c>
       <c r="M72" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N72" t="s">
         <v>138</v>
@@ -4973,13 +4973,13 @@
         <v>137</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H73" t="s">
         <v>138</v>
       </c>
       <c r="I73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J73" t="s">
         <v>138</v>
@@ -4991,13 +4991,13 @@
         <v>138</v>
       </c>
       <c r="M73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N73" t="s">
         <v>138</v>
       </c>
       <c r="O73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P73" t="s">
         <v>138</v>
@@ -5032,7 +5032,7 @@
         <v>137</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
         <v>138</v>
@@ -5056,7 +5056,7 @@
         <v>138</v>
       </c>
       <c r="O74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P74" t="s">
         <v>138</v>
@@ -5091,7 +5091,7 @@
         <v>137</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
         <v>138</v>
@@ -5109,7 +5109,7 @@
         <v>138</v>
       </c>
       <c r="M75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N75" t="s">
         <v>138</v>
@@ -5150,7 +5150,7 @@
         <v>137</v>
       </c>
       <c r="G76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="s">
         <v>138</v>
@@ -5168,7 +5168,7 @@
         <v>138</v>
       </c>
       <c r="M76" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N76" t="s">
         <v>138</v>
@@ -5327,7 +5327,7 @@
         <v>137</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>138</v>
@@ -5363,7 +5363,7 @@
         <v>138</v>
       </c>
       <c r="S79" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5445,13 +5445,13 @@
         <v>137</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
         <v>138</v>
       </c>
       <c r="I81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J81" t="s">
         <v>138</v>
@@ -5463,13 +5463,13 @@
         <v>138</v>
       </c>
       <c r="M81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N81" t="s">
         <v>138</v>
       </c>
       <c r="O81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P81" t="s">
         <v>138</v>
@@ -5563,7 +5563,7 @@
         <v>137</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>138</v>
@@ -5581,7 +5581,7 @@
         <v>138</v>
       </c>
       <c r="M83" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N83" t="s">
         <v>138</v>
@@ -5622,13 +5622,13 @@
         <v>137</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" t="s">
         <v>138</v>
       </c>
       <c r="I84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J84" t="s">
         <v>138</v>
@@ -5640,13 +5640,13 @@
         <v>138</v>
       </c>
       <c r="M84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N84" t="s">
         <v>138</v>
       </c>
       <c r="O84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P84" t="s">
         <v>138</v>
@@ -5681,7 +5681,7 @@
         <v>137</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>138</v>
@@ -5705,7 +5705,7 @@
         <v>138</v>
       </c>
       <c r="O85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P85" t="s">
         <v>138</v>
@@ -5740,7 +5740,7 @@
         <v>137</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>138</v>
@@ -5758,7 +5758,7 @@
         <v>138</v>
       </c>
       <c r="M86" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N86" t="s">
         <v>138</v>
@@ -5799,7 +5799,7 @@
         <v>137</v>
       </c>
       <c r="G87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
         <v>138</v>
@@ -5817,7 +5817,7 @@
         <v>138</v>
       </c>
       <c r="M87" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N87" t="s">
         <v>138</v>
@@ -5858,7 +5858,7 @@
         <v>137</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>138</v>
@@ -5876,7 +5876,7 @@
         <v>138</v>
       </c>
       <c r="M88" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N88" t="s">
         <v>138</v>
@@ -5917,7 +5917,7 @@
         <v>137</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>138</v>
@@ -5935,7 +5935,7 @@
         <v>138</v>
       </c>
       <c r="M89" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N89" t="s">
         <v>138</v>
@@ -5976,7 +5976,7 @@
         <v>137</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>138</v>
@@ -6006,7 +6006,7 @@
         <v>138</v>
       </c>
       <c r="Q90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R90" t="s">
         <v>138</v>
@@ -6094,13 +6094,13 @@
         <v>137</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H92" t="s">
         <v>138</v>
       </c>
       <c r="I92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J92" t="s">
         <v>138</v>
@@ -6112,13 +6112,13 @@
         <v>138</v>
       </c>
       <c r="M92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N92" t="s">
         <v>138</v>
       </c>
       <c r="O92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P92" t="s">
         <v>138</v>
@@ -6212,7 +6212,7 @@
         <v>137</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
         <v>138</v>
@@ -6230,7 +6230,7 @@
         <v>138</v>
       </c>
       <c r="M94" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N94" t="s">
         <v>138</v>
@@ -6271,13 +6271,13 @@
         <v>137</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H95" t="s">
         <v>138</v>
       </c>
       <c r="I95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J95" t="s">
         <v>138</v>
@@ -6289,13 +6289,13 @@
         <v>138</v>
       </c>
       <c r="M95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N95" t="s">
         <v>138</v>
       </c>
       <c r="O95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P95" t="s">
         <v>138</v>
@@ -6330,7 +6330,7 @@
         <v>137</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>138</v>
@@ -6366,7 +6366,7 @@
         <v>138</v>
       </c>
       <c r="S96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -6389,7 +6389,7 @@
         <v>137</v>
       </c>
       <c r="G97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
         <v>138</v>
@@ -6407,7 +6407,7 @@
         <v>138</v>
       </c>
       <c r="M97" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N97" t="s">
         <v>138</v>
@@ -6448,7 +6448,7 @@
         <v>137</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>138</v>
@@ -6466,7 +6466,7 @@
         <v>138</v>
       </c>
       <c r="M98" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N98" t="s">
         <v>138</v>
@@ -6743,13 +6743,13 @@
         <v>137</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>138</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J103" t="s">
         <v>138</v>
@@ -6761,13 +6761,13 @@
         <v>138</v>
       </c>
       <c r="M103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N103" t="s">
         <v>138</v>
       </c>
       <c r="O103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P103" t="s">
         <v>138</v>
@@ -6861,7 +6861,7 @@
         <v>137</v>
       </c>
       <c r="G105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>138</v>
@@ -6879,7 +6879,7 @@
         <v>138</v>
       </c>
       <c r="M105" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N105" t="s">
         <v>138</v>
@@ -6920,13 +6920,13 @@
         <v>137</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H106" t="s">
         <v>138</v>
       </c>
       <c r="I106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J106" t="s">
         <v>138</v>
@@ -6938,13 +6938,13 @@
         <v>138</v>
       </c>
       <c r="M106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N106" t="s">
         <v>138</v>
       </c>
       <c r="O106" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P106" t="s">
         <v>138</v>
@@ -6979,7 +6979,7 @@
         <v>137</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>138</v>
@@ -7009,7 +7009,7 @@
         <v>138</v>
       </c>
       <c r="Q107" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R107" t="s">
         <v>138</v>
@@ -7038,7 +7038,7 @@
         <v>137</v>
       </c>
       <c r="G108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>138</v>
@@ -7056,7 +7056,7 @@
         <v>138</v>
       </c>
       <c r="M108" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N108" t="s">
         <v>138</v>
@@ -7068,7 +7068,7 @@
         <v>138</v>
       </c>
       <c r="Q108" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R108" t="s">
         <v>138</v>
@@ -7097,7 +7097,7 @@
         <v>137</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>138</v>
@@ -7115,7 +7115,7 @@
         <v>138</v>
       </c>
       <c r="M109" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N109" t="s">
         <v>138</v>
@@ -7127,7 +7127,7 @@
         <v>138</v>
       </c>
       <c r="Q109" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R109" t="s">
         <v>138</v>
@@ -7156,7 +7156,7 @@
         <v>137</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>138</v>
@@ -7174,7 +7174,7 @@
         <v>138</v>
       </c>
       <c r="M110" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N110" t="s">
         <v>138</v>
@@ -7215,7 +7215,7 @@
         <v>137</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>138</v>
@@ -7233,7 +7233,7 @@
         <v>138</v>
       </c>
       <c r="M111" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N111" t="s">
         <v>138</v>
@@ -7392,13 +7392,13 @@
         <v>137</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H114" t="s">
         <v>138</v>
       </c>
       <c r="I114" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J114" t="s">
         <v>138</v>
@@ -7410,13 +7410,13 @@
         <v>138</v>
       </c>
       <c r="M114" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N114" t="s">
         <v>138</v>
       </c>
       <c r="O114" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P114" t="s">
         <v>138</v>
@@ -7510,7 +7510,7 @@
         <v>137</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>138</v>
@@ -7528,7 +7528,7 @@
         <v>138</v>
       </c>
       <c r="M116" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N116" t="s">
         <v>138</v>
@@ -7540,7 +7540,7 @@
         <v>138</v>
       </c>
       <c r="Q116" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R116" t="s">
         <v>138</v>
@@ -7569,13 +7569,13 @@
         <v>137</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H117" t="s">
         <v>138</v>
       </c>
       <c r="I117" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J117" t="s">
         <v>138</v>
@@ -7587,13 +7587,13 @@
         <v>138</v>
       </c>
       <c r="M117" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N117" t="s">
         <v>138</v>
       </c>
       <c r="O117" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P117" t="s">
         <v>138</v>
@@ -7687,7 +7687,7 @@
         <v>137</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>138</v>
@@ -7711,13 +7711,13 @@
         <v>138</v>
       </c>
       <c r="O119" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P119" t="s">
         <v>138</v>
       </c>
       <c r="Q119" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R119" t="s">
         <v>138</v>
@@ -7746,7 +7746,7 @@
         <v>137</v>
       </c>
       <c r="G120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>138</v>
@@ -7770,13 +7770,13 @@
         <v>138</v>
       </c>
       <c r="O120" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P120" t="s">
         <v>138</v>
       </c>
       <c r="Q120" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R120" t="s">
         <v>138</v>
@@ -8041,13 +8041,13 @@
         <v>137</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H125" t="s">
         <v>138</v>
       </c>
       <c r="I125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J125" t="s">
         <v>138</v>
@@ -8059,13 +8059,13 @@
         <v>138</v>
       </c>
       <c r="M125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N125" t="s">
         <v>138</v>
       </c>
       <c r="O125" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P125" t="s">
         <v>138</v>
@@ -8159,19 +8159,19 @@
         <v>137</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>138</v>
       </c>
       <c r="I127" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J127" t="s">
         <v>138</v>
       </c>
       <c r="K127" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L127" t="s">
         <v>138</v>
@@ -8183,13 +8183,13 @@
         <v>138</v>
       </c>
       <c r="O127" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P127" t="s">
         <v>138</v>
       </c>
       <c r="Q127" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R127" t="s">
         <v>138</v>
@@ -8218,13 +8218,13 @@
         <v>137</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H128" t="s">
         <v>138</v>
       </c>
       <c r="I128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J128" t="s">
         <v>138</v>
@@ -8236,13 +8236,13 @@
         <v>138</v>
       </c>
       <c r="M128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N128" t="s">
         <v>138</v>
       </c>
       <c r="O128" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P128" t="s">
         <v>138</v>
@@ -8336,19 +8336,19 @@
         <v>137</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>138</v>
       </c>
       <c r="I130" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J130" t="s">
         <v>138</v>
       </c>
       <c r="K130" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L130" t="s">
         <v>138</v>
@@ -8360,13 +8360,13 @@
         <v>138</v>
       </c>
       <c r="O130" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P130" t="s">
         <v>138</v>
       </c>
       <c r="Q130" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R130" t="s">
         <v>138</v>
@@ -8395,19 +8395,19 @@
         <v>137</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>138</v>
       </c>
       <c r="I131" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J131" t="s">
         <v>138</v>
       </c>
       <c r="K131" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L131" t="s">
         <v>138</v>
@@ -8419,13 +8419,13 @@
         <v>138</v>
       </c>
       <c r="O131" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P131" t="s">
         <v>138</v>
       </c>
       <c r="Q131" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R131" t="s">
         <v>138</v>
@@ -8454,7 +8454,7 @@
         <v>137</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>138</v>
@@ -8472,7 +8472,7 @@
         <v>138</v>
       </c>
       <c r="M132" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N132" t="s">
         <v>138</v>
@@ -8513,7 +8513,7 @@
         <v>137</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>138</v>
@@ -8531,7 +8531,7 @@
         <v>138</v>
       </c>
       <c r="M133" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N133" t="s">
         <v>138</v>
@@ -8543,13 +8543,13 @@
         <v>138</v>
       </c>
       <c r="Q133" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R133" t="s">
         <v>138</v>
       </c>
       <c r="S133" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:19">
@@ -8690,13 +8690,13 @@
         <v>137</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H136" t="s">
         <v>138</v>
       </c>
       <c r="I136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J136" t="s">
         <v>138</v>
@@ -8708,13 +8708,13 @@
         <v>138</v>
       </c>
       <c r="M136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N136" t="s">
         <v>138</v>
       </c>
       <c r="O136" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P136" t="s">
         <v>138</v>
@@ -8808,19 +8808,19 @@
         <v>137</v>
       </c>
       <c r="G138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>138</v>
       </c>
       <c r="I138" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J138" t="s">
         <v>138</v>
       </c>
       <c r="K138" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L138" t="s">
         <v>138</v>
@@ -8832,13 +8832,13 @@
         <v>138</v>
       </c>
       <c r="O138" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P138" t="s">
         <v>138</v>
       </c>
       <c r="Q138" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R138" t="s">
         <v>138</v>
@@ -8867,13 +8867,13 @@
         <v>137</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H139" t="s">
         <v>138</v>
       </c>
       <c r="I139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J139" t="s">
         <v>138</v>
@@ -8885,13 +8885,13 @@
         <v>138</v>
       </c>
       <c r="M139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N139" t="s">
         <v>138</v>
       </c>
       <c r="O139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P139" t="s">
         <v>138</v>
@@ -8985,19 +8985,19 @@
         <v>137</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>138</v>
       </c>
       <c r="I141" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J141" t="s">
         <v>138</v>
       </c>
       <c r="K141" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L141" t="s">
         <v>138</v>
@@ -9009,13 +9009,13 @@
         <v>138</v>
       </c>
       <c r="O141" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P141" t="s">
         <v>138</v>
       </c>
       <c r="Q141" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R141" t="s">
         <v>138</v>
@@ -9044,13 +9044,13 @@
         <v>137</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>138</v>
       </c>
       <c r="I142" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J142" t="s">
         <v>138</v>
@@ -9062,19 +9062,19 @@
         <v>138</v>
       </c>
       <c r="M142" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N142" t="s">
         <v>138</v>
       </c>
       <c r="O142" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P142" t="s">
         <v>138</v>
       </c>
       <c r="Q142" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R142" t="s">
         <v>138</v>
@@ -9339,13 +9339,13 @@
         <v>137</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
         <v>138</v>
       </c>
       <c r="I147" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J147" t="s">
         <v>138</v>
@@ -9357,13 +9357,13 @@
         <v>138</v>
       </c>
       <c r="M147" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N147" t="s">
         <v>138</v>
       </c>
       <c r="O147" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P147" t="s">
         <v>138</v>
@@ -9457,13 +9457,13 @@
         <v>137</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
         <v>138</v>
       </c>
       <c r="I149" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J149" t="s">
         <v>138</v>
@@ -9475,19 +9475,19 @@
         <v>138</v>
       </c>
       <c r="M149" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N149" t="s">
         <v>138</v>
       </c>
       <c r="O149" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P149" t="s">
         <v>138</v>
       </c>
       <c r="Q149" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R149" t="s">
         <v>138</v>
@@ -9516,13 +9516,13 @@
         <v>137</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H150" t="s">
         <v>138</v>
       </c>
       <c r="I150" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J150" t="s">
         <v>138</v>
@@ -9534,13 +9534,13 @@
         <v>138</v>
       </c>
       <c r="M150" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N150" t="s">
         <v>138</v>
       </c>
       <c r="O150" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P150" t="s">
         <v>138</v>
@@ -9634,13 +9634,13 @@
         <v>137</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>138</v>
       </c>
       <c r="I152" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J152" t="s">
         <v>138</v>
@@ -9652,19 +9652,19 @@
         <v>138</v>
       </c>
       <c r="M152" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N152" t="s">
         <v>138</v>
       </c>
       <c r="O152" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P152" t="s">
         <v>138</v>
       </c>
       <c r="Q152" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R152" t="s">
         <v>138</v>
@@ -9693,13 +9693,13 @@
         <v>137</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>138</v>
       </c>
       <c r="I153" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J153" t="s">
         <v>138</v>
@@ -9711,19 +9711,19 @@
         <v>138</v>
       </c>
       <c r="M153" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N153" t="s">
         <v>138</v>
       </c>
       <c r="O153" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P153" t="s">
         <v>138</v>
       </c>
       <c r="Q153" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R153" t="s">
         <v>138</v>
@@ -9752,7 +9752,7 @@
         <v>137</v>
       </c>
       <c r="G154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>138</v>
@@ -9770,7 +9770,7 @@
         <v>138</v>
       </c>
       <c r="M154" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N154" t="s">
         <v>138</v>
@@ -9811,7 +9811,7 @@
         <v>137</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>138</v>
@@ -9829,7 +9829,7 @@
         <v>138</v>
       </c>
       <c r="M155" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N155" t="s">
         <v>138</v>
@@ -9841,13 +9841,13 @@
         <v>138</v>
       </c>
       <c r="Q155" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R155" t="s">
         <v>138</v>
       </c>
       <c r="S155" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:19">
@@ -9988,13 +9988,13 @@
         <v>137</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>138</v>
       </c>
       <c r="I158" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J158" t="s">
         <v>138</v>
@@ -10006,13 +10006,13 @@
         <v>138</v>
       </c>
       <c r="M158" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N158" t="s">
         <v>138</v>
       </c>
       <c r="O158" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P158" t="s">
         <v>138</v>
@@ -10106,13 +10106,13 @@
         <v>137</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
         <v>138</v>
       </c>
       <c r="I160" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J160" t="s">
         <v>138</v>
@@ -10124,19 +10124,19 @@
         <v>138</v>
       </c>
       <c r="M160" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N160" t="s">
         <v>138</v>
       </c>
       <c r="O160" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P160" t="s">
         <v>138</v>
       </c>
       <c r="Q160" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R160" t="s">
         <v>138</v>
@@ -10165,13 +10165,13 @@
         <v>137</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>138</v>
       </c>
       <c r="I161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J161" t="s">
         <v>138</v>
@@ -10183,13 +10183,13 @@
         <v>138</v>
       </c>
       <c r="M161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N161" t="s">
         <v>138</v>
       </c>
       <c r="O161" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P161" t="s">
         <v>138</v>
@@ -10283,13 +10283,13 @@
         <v>137</v>
       </c>
       <c r="G163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>138</v>
       </c>
       <c r="I163" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J163" t="s">
         <v>138</v>
@@ -10301,19 +10301,19 @@
         <v>138</v>
       </c>
       <c r="M163" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N163" t="s">
         <v>138</v>
       </c>
       <c r="O163" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P163" t="s">
         <v>138</v>
       </c>
       <c r="Q163" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R163" t="s">
         <v>138</v>
@@ -10342,13 +10342,13 @@
         <v>137</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H164" t="s">
         <v>138</v>
       </c>
       <c r="I164" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J164" t="s">
         <v>138</v>
@@ -10360,19 +10360,19 @@
         <v>138</v>
       </c>
       <c r="M164" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N164" t="s">
         <v>138</v>
       </c>
       <c r="O164" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P164" t="s">
         <v>138</v>
       </c>
       <c r="Q164" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R164" t="s">
         <v>138</v>
@@ -10637,13 +10637,13 @@
         <v>137</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H169" t="s">
         <v>138</v>
       </c>
       <c r="I169" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J169" t="s">
         <v>138</v>
@@ -10655,7 +10655,7 @@
         <v>138</v>
       </c>
       <c r="M169" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N169" t="s">
         <v>138</v>
@@ -10673,7 +10673,7 @@
         <v>138</v>
       </c>
       <c r="S169" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170" spans="1:19">
@@ -10755,13 +10755,13 @@
         <v>137</v>
       </c>
       <c r="G171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>138</v>
       </c>
       <c r="I171" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J171" t="s">
         <v>138</v>
@@ -10773,19 +10773,19 @@
         <v>138</v>
       </c>
       <c r="M171" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N171" t="s">
         <v>138</v>
       </c>
       <c r="O171" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P171" t="s">
         <v>138</v>
       </c>
       <c r="Q171" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R171" t="s">
         <v>138</v>
@@ -10814,13 +10814,13 @@
         <v>137</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H172" t="s">
         <v>138</v>
       </c>
       <c r="I172" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J172" t="s">
         <v>138</v>
@@ -10832,7 +10832,7 @@
         <v>138</v>
       </c>
       <c r="M172" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N172" t="s">
         <v>138</v>
@@ -10850,7 +10850,7 @@
         <v>138</v>
       </c>
       <c r="S172" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173" spans="1:19">
@@ -10932,13 +10932,13 @@
         <v>137</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>138</v>
       </c>
       <c r="I174" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J174" t="s">
         <v>138</v>
@@ -10950,19 +10950,19 @@
         <v>138</v>
       </c>
       <c r="M174" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N174" t="s">
         <v>138</v>
       </c>
       <c r="O174" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P174" t="s">
         <v>138</v>
       </c>
       <c r="Q174" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R174" t="s">
         <v>138</v>
@@ -10991,13 +10991,13 @@
         <v>137</v>
       </c>
       <c r="G175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>138</v>
       </c>
       <c r="I175" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J175" t="s">
         <v>138</v>
@@ -11009,19 +11009,19 @@
         <v>138</v>
       </c>
       <c r="M175" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N175" t="s">
         <v>138</v>
       </c>
       <c r="O175" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P175" t="s">
         <v>138</v>
       </c>
       <c r="Q175" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R175" t="s">
         <v>138</v>
@@ -11050,7 +11050,7 @@
         <v>137</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>138</v>
@@ -11068,13 +11068,13 @@
         <v>138</v>
       </c>
       <c r="M176" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N176" t="s">
         <v>138</v>
       </c>
       <c r="O176" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P176" t="s">
         <v>138</v>
@@ -11086,7 +11086,7 @@
         <v>138</v>
       </c>
       <c r="S176" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:19">
@@ -11109,7 +11109,7 @@
         <v>137</v>
       </c>
       <c r="G177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>138</v>
@@ -11127,7 +11127,7 @@
         <v>138</v>
       </c>
       <c r="M177" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N177" t="s">
         <v>138</v>
@@ -11286,13 +11286,13 @@
         <v>137</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H180" t="s">
         <v>138</v>
       </c>
       <c r="I180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J180" t="s">
         <v>138</v>
@@ -11304,7 +11304,7 @@
         <v>138</v>
       </c>
       <c r="M180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N180" t="s">
         <v>138</v>
@@ -11322,7 +11322,7 @@
         <v>138</v>
       </c>
       <c r="S180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" spans="1:19">
@@ -11404,13 +11404,13 @@
         <v>137</v>
       </c>
       <c r="G182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>138</v>
       </c>
       <c r="I182" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J182" t="s">
         <v>138</v>
@@ -11422,19 +11422,19 @@
         <v>138</v>
       </c>
       <c r="M182" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N182" t="s">
         <v>138</v>
       </c>
       <c r="O182" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P182" t="s">
         <v>138</v>
       </c>
       <c r="Q182" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R182" t="s">
         <v>138</v>
@@ -11463,13 +11463,13 @@
         <v>137</v>
       </c>
       <c r="G183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>138</v>
       </c>
       <c r="I183" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J183" t="s">
         <v>138</v>
@@ -11487,7 +11487,7 @@
         <v>138</v>
       </c>
       <c r="O183" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P183" t="s">
         <v>138</v>
@@ -11499,7 +11499,7 @@
         <v>138</v>
       </c>
       <c r="S183" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:19">
@@ -11581,13 +11581,13 @@
         <v>137</v>
       </c>
       <c r="G185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>138</v>
       </c>
       <c r="I185" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J185" t="s">
         <v>138</v>
@@ -11599,19 +11599,19 @@
         <v>138</v>
       </c>
       <c r="M185" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N185" t="s">
         <v>138</v>
       </c>
       <c r="O185" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P185" t="s">
         <v>138</v>
       </c>
       <c r="Q185" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R185" t="s">
         <v>138</v>
@@ -11640,13 +11640,13 @@
         <v>137</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>138</v>
       </c>
       <c r="I186" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J186" t="s">
         <v>138</v>
@@ -11658,19 +11658,19 @@
         <v>138</v>
       </c>
       <c r="M186" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N186" t="s">
         <v>138</v>
       </c>
       <c r="O186" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P186" t="s">
         <v>138</v>
       </c>
       <c r="Q186" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R186" t="s">
         <v>138</v>
@@ -11935,13 +11935,13 @@
         <v>137</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H191" t="s">
         <v>138</v>
       </c>
       <c r="I191" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J191" t="s">
         <v>138</v>
@@ -11959,7 +11959,7 @@
         <v>138</v>
       </c>
       <c r="O191" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P191" t="s">
         <v>138</v>
@@ -11971,7 +11971,7 @@
         <v>138</v>
       </c>
       <c r="S191" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="192" spans="1:19">
@@ -12053,13 +12053,13 @@
         <v>137</v>
       </c>
       <c r="G193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>138</v>
       </c>
       <c r="I193" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J193" t="s">
         <v>138</v>
@@ -12071,19 +12071,19 @@
         <v>138</v>
       </c>
       <c r="M193" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N193" t="s">
         <v>138</v>
       </c>
       <c r="O193" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P193" t="s">
         <v>138</v>
       </c>
       <c r="Q193" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R193" t="s">
         <v>138</v>
@@ -12112,13 +12112,13 @@
         <v>137</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H194" t="s">
         <v>138</v>
       </c>
       <c r="I194" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J194" t="s">
         <v>138</v>
@@ -12136,13 +12136,13 @@
         <v>138</v>
       </c>
       <c r="O194" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P194" t="s">
         <v>138</v>
       </c>
       <c r="Q194" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R194" t="s">
         <v>138</v>
@@ -12230,13 +12230,13 @@
         <v>137</v>
       </c>
       <c r="G196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>138</v>
       </c>
       <c r="I196" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J196" t="s">
         <v>138</v>
@@ -12248,19 +12248,19 @@
         <v>138</v>
       </c>
       <c r="M196" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N196" t="s">
         <v>138</v>
       </c>
       <c r="O196" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P196" t="s">
         <v>138</v>
       </c>
       <c r="Q196" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R196" t="s">
         <v>138</v>
@@ -12289,13 +12289,13 @@
         <v>137</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>138</v>
       </c>
       <c r="I197" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J197" t="s">
         <v>138</v>
@@ -12307,19 +12307,19 @@
         <v>138</v>
       </c>
       <c r="M197" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N197" t="s">
         <v>138</v>
       </c>
       <c r="O197" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P197" t="s">
         <v>138</v>
       </c>
       <c r="Q197" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R197" t="s">
         <v>138</v>
@@ -12348,7 +12348,7 @@
         <v>137</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>138</v>
@@ -12366,13 +12366,13 @@
         <v>138</v>
       </c>
       <c r="M198" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N198" t="s">
         <v>138</v>
       </c>
       <c r="O198" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P198" t="s">
         <v>138</v>
@@ -12384,7 +12384,7 @@
         <v>138</v>
       </c>
       <c r="S198" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="199" spans="1:19">
@@ -12407,7 +12407,7 @@
         <v>137</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>138</v>
@@ -12425,7 +12425,7 @@
         <v>138</v>
       </c>
       <c r="M199" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N199" t="s">
         <v>138</v>
@@ -12584,13 +12584,13 @@
         <v>137</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H202" t="s">
         <v>138</v>
       </c>
       <c r="I202" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J202" t="s">
         <v>138</v>
@@ -12608,13 +12608,13 @@
         <v>138</v>
       </c>
       <c r="O202" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P202" t="s">
         <v>138</v>
       </c>
       <c r="Q202" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R202" t="s">
         <v>138</v>
@@ -12702,13 +12702,13 @@
         <v>137</v>
       </c>
       <c r="G204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>138</v>
       </c>
       <c r="I204" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J204" t="s">
         <v>138</v>
@@ -12720,19 +12720,19 @@
         <v>138</v>
       </c>
       <c r="M204" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N204" t="s">
         <v>138</v>
       </c>
       <c r="O204" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P204" t="s">
         <v>138</v>
       </c>
       <c r="Q204" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R204" t="s">
         <v>138</v>
@@ -12761,13 +12761,13 @@
         <v>137</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H205" t="s">
         <v>138</v>
       </c>
       <c r="I205" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J205" t="s">
         <v>138</v>
@@ -12785,13 +12785,13 @@
         <v>138</v>
       </c>
       <c r="O205" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P205" t="s">
         <v>138</v>
       </c>
       <c r="Q205" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R205" t="s">
         <v>138</v>
@@ -12879,13 +12879,13 @@
         <v>137</v>
       </c>
       <c r="G207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>138</v>
       </c>
       <c r="I207" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J207" t="s">
         <v>138</v>
@@ -12897,19 +12897,19 @@
         <v>138</v>
       </c>
       <c r="M207" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N207" t="s">
         <v>138</v>
       </c>
       <c r="O207" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P207" t="s">
         <v>138</v>
       </c>
       <c r="Q207" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R207" t="s">
         <v>138</v>
@@ -12938,13 +12938,13 @@
         <v>137</v>
       </c>
       <c r="G208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>138</v>
       </c>
       <c r="I208" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J208" t="s">
         <v>138</v>
@@ -12956,19 +12956,19 @@
         <v>138</v>
       </c>
       <c r="M208" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N208" t="s">
         <v>138</v>
       </c>
       <c r="O208" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P208" t="s">
         <v>138</v>
       </c>
       <c r="Q208" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R208" t="s">
         <v>138</v>
@@ -13233,13 +13233,13 @@
         <v>137</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H213" t="s">
         <v>138</v>
       </c>
       <c r="I213" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J213" t="s">
         <v>138</v>
@@ -13257,13 +13257,13 @@
         <v>138</v>
       </c>
       <c r="O213" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P213" t="s">
         <v>138</v>
       </c>
       <c r="Q213" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R213" t="s">
         <v>138</v>
@@ -13351,13 +13351,13 @@
         <v>137</v>
       </c>
       <c r="G215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>138</v>
       </c>
       <c r="I215" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J215" t="s">
         <v>138</v>
@@ -13369,19 +13369,19 @@
         <v>138</v>
       </c>
       <c r="M215" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N215" t="s">
         <v>138</v>
       </c>
       <c r="O215" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P215" t="s">
         <v>138</v>
       </c>
       <c r="Q215" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R215" t="s">
         <v>138</v>
@@ -13410,13 +13410,13 @@
         <v>137</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H216" t="s">
         <v>138</v>
       </c>
       <c r="I216" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J216" t="s">
         <v>138</v>
@@ -13434,13 +13434,13 @@
         <v>138</v>
       </c>
       <c r="O216" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P216" t="s">
         <v>138</v>
       </c>
       <c r="Q216" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R216" t="s">
         <v>138</v>
@@ -13528,13 +13528,13 @@
         <v>137</v>
       </c>
       <c r="G218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>138</v>
       </c>
       <c r="I218" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J218" t="s">
         <v>138</v>
@@ -13546,19 +13546,19 @@
         <v>138</v>
       </c>
       <c r="M218" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N218" t="s">
         <v>138</v>
       </c>
       <c r="O218" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P218" t="s">
         <v>138</v>
       </c>
       <c r="Q218" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R218" t="s">
         <v>138</v>
@@ -13587,13 +13587,13 @@
         <v>137</v>
       </c>
       <c r="G219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>138</v>
       </c>
       <c r="I219" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J219" t="s">
         <v>138</v>
@@ -13605,19 +13605,19 @@
         <v>138</v>
       </c>
       <c r="M219" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N219" t="s">
         <v>138</v>
       </c>
       <c r="O219" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P219" t="s">
         <v>138</v>
       </c>
       <c r="Q219" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R219" t="s">
         <v>138</v>
@@ -13646,7 +13646,7 @@
         <v>137</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>138</v>
@@ -13664,13 +13664,13 @@
         <v>138</v>
       </c>
       <c r="M220" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N220" t="s">
         <v>138</v>
       </c>
       <c r="O220" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P220" t="s">
         <v>138</v>
@@ -13682,7 +13682,7 @@
         <v>138</v>
       </c>
       <c r="S220" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="221" spans="1:19">
@@ -13705,7 +13705,7 @@
         <v>137</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>138</v>
@@ -13723,7 +13723,7 @@
         <v>138</v>
       </c>
       <c r="M221" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N221" t="s">
         <v>138</v>
@@ -13882,13 +13882,13 @@
         <v>137</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H224" t="s">
         <v>138</v>
       </c>
       <c r="I224" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J224" t="s">
         <v>138</v>
@@ -13906,13 +13906,13 @@
         <v>138</v>
       </c>
       <c r="O224" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P224" t="s">
         <v>138</v>
       </c>
       <c r="Q224" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R224" t="s">
         <v>138</v>
@@ -14000,13 +14000,13 @@
         <v>137</v>
       </c>
       <c r="G226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>138</v>
       </c>
       <c r="I226" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J226" t="s">
         <v>138</v>
@@ -14018,19 +14018,19 @@
         <v>138</v>
       </c>
       <c r="M226" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N226" t="s">
         <v>138</v>
       </c>
       <c r="O226" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P226" t="s">
         <v>138</v>
       </c>
       <c r="Q226" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R226" t="s">
         <v>138</v>
@@ -14059,13 +14059,13 @@
         <v>137</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H227" t="s">
         <v>138</v>
       </c>
       <c r="I227" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J227" t="s">
         <v>138</v>
@@ -14083,13 +14083,13 @@
         <v>138</v>
       </c>
       <c r="O227" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P227" t="s">
         <v>138</v>
       </c>
       <c r="Q227" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R227" t="s">
         <v>138</v>
@@ -14177,13 +14177,13 @@
         <v>137</v>
       </c>
       <c r="G229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>138</v>
       </c>
       <c r="I229" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J229" t="s">
         <v>138</v>
@@ -14195,19 +14195,19 @@
         <v>138</v>
       </c>
       <c r="M229" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N229" t="s">
         <v>138</v>
       </c>
       <c r="O229" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P229" t="s">
         <v>138</v>
       </c>
       <c r="Q229" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="R229" t="s">
         <v>138</v>
@@ -14236,13 +14236,13 @@
         <v>137</v>
       </c>
       <c r="G230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" t="s">
         <v>138</v>
       </c>
       <c r="I230" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J230" t="s">
         <v>138</v>
@@ -14254,13 +14254,13 @@
         <v>138</v>
       </c>
       <c r="M230" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N230" t="s">
         <v>138</v>
       </c>
       <c r="O230" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P230" t="s">
         <v>138</v>
@@ -14531,13 +14531,13 @@
         <v>137</v>
       </c>
       <c r="G235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H235" t="s">
         <v>138</v>
       </c>
       <c r="I235" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J235" t="s">
         <v>138</v>
@@ -14555,13 +14555,13 @@
         <v>138</v>
       </c>
       <c r="O235" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P235" t="s">
         <v>138</v>
       </c>
       <c r="Q235" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R235" t="s">
         <v>138</v>
@@ -14649,13 +14649,13 @@
         <v>137</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>138</v>
       </c>
       <c r="I237" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J237" t="s">
         <v>138</v>
@@ -14667,13 +14667,13 @@
         <v>138</v>
       </c>
       <c r="M237" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N237" t="s">
         <v>138</v>
       </c>
       <c r="O237" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P237" t="s">
         <v>138</v>
@@ -14708,13 +14708,13 @@
         <v>137</v>
       </c>
       <c r="G238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H238" t="s">
         <v>138</v>
       </c>
       <c r="I238" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J238" t="s">
         <v>138</v>
@@ -14732,13 +14732,13 @@
         <v>138</v>
       </c>
       <c r="O238" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P238" t="s">
         <v>138</v>
       </c>
       <c r="Q238" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R238" t="s">
         <v>138</v>
@@ -14826,13 +14826,13 @@
         <v>137</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>138</v>
       </c>
       <c r="I240" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J240" t="s">
         <v>138</v>
@@ -14844,13 +14844,13 @@
         <v>138</v>
       </c>
       <c r="M240" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N240" t="s">
         <v>138</v>
       </c>
       <c r="O240" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P240" t="s">
         <v>138</v>
@@ -14885,13 +14885,13 @@
         <v>137</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H241" t="s">
         <v>138</v>
       </c>
       <c r="I241" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J241" t="s">
         <v>138</v>
@@ -14903,13 +14903,13 @@
         <v>138</v>
       </c>
       <c r="M241" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N241" t="s">
         <v>138</v>
       </c>
       <c r="O241" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P241" t="s">
         <v>138</v>
@@ -14944,7 +14944,7 @@
         <v>137</v>
       </c>
       <c r="G242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>138</v>
@@ -14962,13 +14962,13 @@
         <v>138</v>
       </c>
       <c r="M242" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N242" t="s">
         <v>138</v>
       </c>
       <c r="O242" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P242" t="s">
         <v>138</v>
@@ -14980,7 +14980,7 @@
         <v>138</v>
       </c>
       <c r="S242" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="243" spans="1:19">
@@ -15003,7 +15003,7 @@
         <v>137</v>
       </c>
       <c r="G243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243" t="s">
         <v>138</v>
@@ -15021,7 +15021,7 @@
         <v>138</v>
       </c>
       <c r="M243" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N243" t="s">
         <v>138</v>
@@ -15180,13 +15180,13 @@
         <v>137</v>
       </c>
       <c r="G246">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>138</v>
       </c>
       <c r="I246" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J246" t="s">
         <v>138</v>
@@ -15204,13 +15204,13 @@
         <v>138</v>
       </c>
       <c r="O246" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P246" t="s">
         <v>138</v>
       </c>
       <c r="Q246" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R246" t="s">
         <v>138</v>
@@ -15298,7 +15298,7 @@
         <v>137</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>138</v>
@@ -15310,19 +15310,19 @@
         <v>138</v>
       </c>
       <c r="K248" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L248" t="s">
         <v>138</v>
       </c>
       <c r="M248" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N248" t="s">
         <v>138</v>
       </c>
       <c r="O248" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P248" t="s">
         <v>138</v>
@@ -15357,13 +15357,13 @@
         <v>137</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H249" t="s">
         <v>138</v>
       </c>
       <c r="I249" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J249" t="s">
         <v>138</v>
@@ -15381,13 +15381,13 @@
         <v>138</v>
       </c>
       <c r="O249" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P249" t="s">
         <v>138</v>
       </c>
       <c r="Q249" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R249" t="s">
         <v>138</v>
@@ -15475,7 +15475,7 @@
         <v>137</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>138</v>
@@ -15487,19 +15487,19 @@
         <v>138</v>
       </c>
       <c r="K251" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L251" t="s">
         <v>138</v>
       </c>
       <c r="M251" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N251" t="s">
         <v>138</v>
       </c>
       <c r="O251" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P251" t="s">
         <v>138</v>
@@ -15534,7 +15534,7 @@
         <v>137</v>
       </c>
       <c r="G252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>138</v>
@@ -15546,19 +15546,19 @@
         <v>138</v>
       </c>
       <c r="K252" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L252" t="s">
         <v>138</v>
       </c>
       <c r="M252" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N252" t="s">
         <v>138</v>
       </c>
       <c r="O252" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P252" t="s">
         <v>138</v>
@@ -15829,13 +15829,13 @@
         <v>137</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H257" t="s">
         <v>138</v>
       </c>
       <c r="I257" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J257" t="s">
         <v>138</v>
@@ -15853,13 +15853,13 @@
         <v>138</v>
       </c>
       <c r="O257" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P257" t="s">
         <v>138</v>
       </c>
       <c r="Q257" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R257" t="s">
         <v>138</v>
@@ -15947,7 +15947,7 @@
         <v>137</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>138</v>
@@ -15959,19 +15959,19 @@
         <v>138</v>
       </c>
       <c r="K259" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L259" t="s">
         <v>138</v>
       </c>
       <c r="M259" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N259" t="s">
         <v>138</v>
       </c>
       <c r="O259" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P259" t="s">
         <v>138</v>
@@ -16006,13 +16006,13 @@
         <v>137</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H260" t="s">
         <v>138</v>
       </c>
       <c r="I260" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J260" t="s">
         <v>138</v>
@@ -16030,13 +16030,13 @@
         <v>138</v>
       </c>
       <c r="O260" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P260" t="s">
         <v>138</v>
       </c>
       <c r="Q260" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R260" t="s">
         <v>138</v>
@@ -16124,7 +16124,7 @@
         <v>137</v>
       </c>
       <c r="G262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>138</v>
@@ -16136,19 +16136,19 @@
         <v>138</v>
       </c>
       <c r="K262" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L262" t="s">
         <v>138</v>
       </c>
       <c r="M262" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N262" t="s">
         <v>138</v>
       </c>
       <c r="O262" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P262" t="s">
         <v>138</v>
@@ -16183,7 +16183,7 @@
         <v>137</v>
       </c>
       <c r="G263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>138</v>
@@ -16195,19 +16195,19 @@
         <v>138</v>
       </c>
       <c r="K263" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L263" t="s">
         <v>138</v>
       </c>
       <c r="M263" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N263" t="s">
         <v>138</v>
       </c>
       <c r="O263" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P263" t="s">
         <v>138</v>
@@ -16242,7 +16242,7 @@
         <v>137</v>
       </c>
       <c r="G264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>138</v>
@@ -16260,13 +16260,13 @@
         <v>138</v>
       </c>
       <c r="M264" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N264" t="s">
         <v>138</v>
       </c>
       <c r="O264" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P264" t="s">
         <v>138</v>
@@ -16278,7 +16278,7 @@
         <v>138</v>
       </c>
       <c r="S264" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="265" spans="1:19">
@@ -16301,7 +16301,7 @@
         <v>137</v>
       </c>
       <c r="G265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>138</v>
@@ -16319,7 +16319,7 @@
         <v>138</v>
       </c>
       <c r="M265" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N265" t="s">
         <v>138</v>
@@ -16478,13 +16478,13 @@
         <v>137</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H268" t="s">
         <v>138</v>
       </c>
       <c r="I268" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J268" t="s">
         <v>138</v>
@@ -16502,13 +16502,13 @@
         <v>138</v>
       </c>
       <c r="O268" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P268" t="s">
         <v>138</v>
       </c>
       <c r="Q268" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R268" t="s">
         <v>138</v>
@@ -16596,7 +16596,7 @@
         <v>137</v>
       </c>
       <c r="G270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H270" t="s">
         <v>138</v>
@@ -16608,19 +16608,19 @@
         <v>138</v>
       </c>
       <c r="K270" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L270" t="s">
         <v>138</v>
       </c>
       <c r="M270" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N270" t="s">
         <v>138</v>
       </c>
       <c r="O270" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P270" t="s">
         <v>138</v>
@@ -16655,13 +16655,13 @@
         <v>137</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H271" t="s">
         <v>138</v>
       </c>
       <c r="I271" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J271" t="s">
         <v>138</v>
@@ -16679,13 +16679,13 @@
         <v>138</v>
       </c>
       <c r="O271" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P271" t="s">
         <v>138</v>
       </c>
       <c r="Q271" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R271" t="s">
         <v>138</v>
@@ -16773,7 +16773,7 @@
         <v>137</v>
       </c>
       <c r="G273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>138</v>
@@ -16785,19 +16785,19 @@
         <v>138</v>
       </c>
       <c r="K273" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L273" t="s">
         <v>138</v>
       </c>
       <c r="M273" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N273" t="s">
         <v>138</v>
       </c>
       <c r="O273" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P273" t="s">
         <v>138</v>
@@ -16832,7 +16832,7 @@
         <v>137</v>
       </c>
       <c r="G274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>138</v>
@@ -16844,7 +16844,7 @@
         <v>138</v>
       </c>
       <c r="K274" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L274" t="s">
         <v>138</v>
@@ -17127,13 +17127,13 @@
         <v>137</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H279" t="s">
         <v>138</v>
       </c>
       <c r="I279" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J279" t="s">
         <v>138</v>
@@ -17151,13 +17151,13 @@
         <v>138</v>
       </c>
       <c r="O279" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P279" t="s">
         <v>138</v>
       </c>
       <c r="Q279" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R279" t="s">
         <v>138</v>
@@ -17245,7 +17245,7 @@
         <v>137</v>
       </c>
       <c r="G281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>138</v>
@@ -17257,7 +17257,7 @@
         <v>138</v>
       </c>
       <c r="K281" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L281" t="s">
         <v>138</v>
@@ -17304,13 +17304,13 @@
         <v>137</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H282" t="s">
         <v>138</v>
       </c>
       <c r="I282" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J282" t="s">
         <v>138</v>
@@ -17328,13 +17328,13 @@
         <v>138</v>
       </c>
       <c r="O282" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P282" t="s">
         <v>138</v>
       </c>
       <c r="Q282" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R282" t="s">
         <v>138</v>
@@ -17422,7 +17422,7 @@
         <v>137</v>
       </c>
       <c r="G284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>138</v>
@@ -17434,7 +17434,7 @@
         <v>138</v>
       </c>
       <c r="K284" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L284" t="s">
         <v>138</v>
@@ -17481,7 +17481,7 @@
         <v>137</v>
       </c>
       <c r="G285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>138</v>
@@ -17493,7 +17493,7 @@
         <v>138</v>
       </c>
       <c r="K285" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L285" t="s">
         <v>138</v>
@@ -17540,7 +17540,7 @@
         <v>137</v>
       </c>
       <c r="G286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>138</v>
@@ -17558,13 +17558,13 @@
         <v>138</v>
       </c>
       <c r="M286" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N286" t="s">
         <v>138</v>
       </c>
       <c r="O286" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P286" t="s">
         <v>138</v>
@@ -17576,7 +17576,7 @@
         <v>138</v>
       </c>
       <c r="S286" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="287" spans="1:19">
@@ -17599,7 +17599,7 @@
         <v>137</v>
       </c>
       <c r="G287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>138</v>
@@ -17617,7 +17617,7 @@
         <v>138</v>
       </c>
       <c r="M287" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N287" t="s">
         <v>138</v>
@@ -17776,13 +17776,13 @@
         <v>137</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H290" t="s">
         <v>138</v>
       </c>
       <c r="I290" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J290" t="s">
         <v>138</v>
@@ -17800,13 +17800,13 @@
         <v>138</v>
       </c>
       <c r="O290" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P290" t="s">
         <v>138</v>
       </c>
       <c r="Q290" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R290" t="s">
         <v>138</v>
@@ -17894,7 +17894,7 @@
         <v>137</v>
       </c>
       <c r="G292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>138</v>
@@ -17906,7 +17906,7 @@
         <v>138</v>
       </c>
       <c r="K292" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L292" t="s">
         <v>138</v>
@@ -17953,13 +17953,13 @@
         <v>137</v>
       </c>
       <c r="G293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>138</v>
       </c>
       <c r="I293" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J293" t="s">
         <v>138</v>
@@ -17977,13 +17977,13 @@
         <v>138</v>
       </c>
       <c r="O293" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P293" t="s">
         <v>138</v>
       </c>
       <c r="Q293" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R293" t="s">
         <v>138</v>
@@ -18071,7 +18071,7 @@
         <v>137</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295" t="s">
         <v>138</v>
@@ -18089,7 +18089,7 @@
         <v>138</v>
       </c>
       <c r="M295" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N295" t="s">
         <v>138</v>
@@ -18130,7 +18130,7 @@
         <v>137</v>
       </c>
       <c r="G296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>138</v>
@@ -18148,7 +18148,7 @@
         <v>138</v>
       </c>
       <c r="M296" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N296" t="s">
         <v>138</v>
@@ -18425,13 +18425,13 @@
         <v>137</v>
       </c>
       <c r="G301">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H301" t="s">
         <v>138</v>
       </c>
       <c r="I301" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J301" t="s">
         <v>138</v>
@@ -18449,13 +18449,13 @@
         <v>138</v>
       </c>
       <c r="O301" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P301" t="s">
         <v>138</v>
       </c>
       <c r="Q301" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R301" t="s">
         <v>138</v>
@@ -18543,7 +18543,7 @@
         <v>137</v>
       </c>
       <c r="G303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>138</v>
@@ -18561,7 +18561,7 @@
         <v>138</v>
       </c>
       <c r="M303" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N303" t="s">
         <v>138</v>
@@ -18602,13 +18602,13 @@
         <v>137</v>
       </c>
       <c r="G304">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H304" t="s">
         <v>138</v>
       </c>
       <c r="I304" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J304" t="s">
         <v>138</v>
@@ -18626,13 +18626,13 @@
         <v>138</v>
       </c>
       <c r="O304" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P304" t="s">
         <v>138</v>
       </c>
       <c r="Q304" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R304" t="s">
         <v>138</v>
@@ -18720,7 +18720,7 @@
         <v>137</v>
       </c>
       <c r="G306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H306" t="s">
         <v>138</v>
@@ -18738,7 +18738,7 @@
         <v>138</v>
       </c>
       <c r="M306" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N306" t="s">
         <v>138</v>
@@ -18779,7 +18779,7 @@
         <v>137</v>
       </c>
       <c r="G307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H307" t="s">
         <v>138</v>
@@ -18797,7 +18797,7 @@
         <v>138</v>
       </c>
       <c r="M307" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N307" t="s">
         <v>138</v>
@@ -18838,7 +18838,7 @@
         <v>137</v>
       </c>
       <c r="G308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>138</v>
@@ -18856,13 +18856,13 @@
         <v>138</v>
       </c>
       <c r="M308" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N308" t="s">
         <v>138</v>
       </c>
       <c r="O308" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P308" t="s">
         <v>138</v>
@@ -18874,7 +18874,7 @@
         <v>138</v>
       </c>
       <c r="S308" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="309" spans="1:19">
@@ -18897,7 +18897,7 @@
         <v>137</v>
       </c>
       <c r="G309">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H309" t="s">
         <v>138</v>
@@ -18915,7 +18915,7 @@
         <v>138</v>
       </c>
       <c r="M309" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N309" t="s">
         <v>138</v>
@@ -19074,13 +19074,13 @@
         <v>137</v>
       </c>
       <c r="G312">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>138</v>
       </c>
       <c r="I312" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J312" t="s">
         <v>138</v>
@@ -19098,13 +19098,13 @@
         <v>138</v>
       </c>
       <c r="O312" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P312" t="s">
         <v>138</v>
       </c>
       <c r="Q312" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R312" t="s">
         <v>138</v>
@@ -19192,7 +19192,7 @@
         <v>137</v>
       </c>
       <c r="G314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>138</v>
@@ -19210,7 +19210,7 @@
         <v>138</v>
       </c>
       <c r="M314" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N314" t="s">
         <v>138</v>
@@ -19251,13 +19251,13 @@
         <v>137</v>
       </c>
       <c r="G315">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H315" t="s">
         <v>138</v>
       </c>
       <c r="I315" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J315" t="s">
         <v>138</v>
@@ -19275,13 +19275,13 @@
         <v>138</v>
       </c>
       <c r="O315" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P315" t="s">
         <v>138</v>
       </c>
       <c r="Q315" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R315" t="s">
         <v>138</v>
@@ -19369,7 +19369,7 @@
         <v>137</v>
       </c>
       <c r="G317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H317" t="s">
         <v>138</v>
@@ -19387,7 +19387,7 @@
         <v>138</v>
       </c>
       <c r="M317" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N317" t="s">
         <v>138</v>
@@ -19428,7 +19428,7 @@
         <v>137</v>
       </c>
       <c r="G318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>138</v>
@@ -19446,7 +19446,7 @@
         <v>138</v>
       </c>
       <c r="M318" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N318" t="s">
         <v>138</v>
@@ -19723,7 +19723,7 @@
         <v>137</v>
       </c>
       <c r="G323">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H323" t="s">
         <v>138</v>
@@ -19735,7 +19735,7 @@
         <v>138</v>
       </c>
       <c r="K323" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L323" t="s">
         <v>138</v>
@@ -19747,13 +19747,13 @@
         <v>138</v>
       </c>
       <c r="O323" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P323" t="s">
         <v>138</v>
       </c>
       <c r="Q323" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R323" t="s">
         <v>138</v>
@@ -19841,7 +19841,7 @@
         <v>137</v>
       </c>
       <c r="G325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H325" t="s">
         <v>138</v>
@@ -19859,7 +19859,7 @@
         <v>138</v>
       </c>
       <c r="M325" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N325" t="s">
         <v>138</v>
@@ -19900,7 +19900,7 @@
         <v>137</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H326" t="s">
         <v>138</v>
@@ -19912,7 +19912,7 @@
         <v>138</v>
       </c>
       <c r="K326" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L326" t="s">
         <v>138</v>
@@ -19924,13 +19924,13 @@
         <v>138</v>
       </c>
       <c r="O326" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P326" t="s">
         <v>138</v>
       </c>
       <c r="Q326" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R326" t="s">
         <v>138</v>
@@ -20018,7 +20018,7 @@
         <v>137</v>
       </c>
       <c r="G328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H328" t="s">
         <v>138</v>
@@ -20036,7 +20036,7 @@
         <v>138</v>
       </c>
       <c r="M328" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N328" t="s">
         <v>138</v>
@@ -20077,7 +20077,7 @@
         <v>137</v>
       </c>
       <c r="G329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>138</v>
@@ -20095,7 +20095,7 @@
         <v>138</v>
       </c>
       <c r="M329" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N329" t="s">
         <v>138</v>
@@ -20136,7 +20136,7 @@
         <v>137</v>
       </c>
       <c r="G330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>138</v>
@@ -20154,13 +20154,13 @@
         <v>138</v>
       </c>
       <c r="M330" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N330" t="s">
         <v>138</v>
       </c>
       <c r="O330" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P330" t="s">
         <v>138</v>
@@ -20172,7 +20172,7 @@
         <v>138</v>
       </c>
       <c r="S330" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="331" spans="1:19">
@@ -20195,7 +20195,7 @@
         <v>137</v>
       </c>
       <c r="G331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H331" t="s">
         <v>138</v>
@@ -20213,7 +20213,7 @@
         <v>138</v>
       </c>
       <c r="M331" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="N331" t="s">
         <v>138</v>
@@ -20372,7 +20372,7 @@
         <v>137</v>
       </c>
       <c r="G334">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H334" t="s">
         <v>138</v>
@@ -20384,7 +20384,7 @@
         <v>138</v>
       </c>
       <c r="K334" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L334" t="s">
         <v>138</v>
@@ -20396,13 +20396,13 @@
         <v>138</v>
       </c>
       <c r="O334" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P334" t="s">
         <v>138</v>
       </c>
       <c r="Q334" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R334" t="s">
         <v>138</v>

--- a/observer_output.xlsx
+++ b/observer_output.xlsx
@@ -6070,7 +6070,7 @@
         <v>391</v>
       </c>
       <c r="AK29" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL29" t="s">
         <v>391</v>

--- a/observer_output.xlsx
+++ b/observer_output.xlsx
@@ -1972,7 +1972,7 @@
         <v>390</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>391</v>
@@ -2116,7 +2116,7 @@
         <v>391</v>
       </c>
       <c r="BC5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:55">
@@ -2139,7 +2139,7 @@
         <v>390</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>391</v>
@@ -2271,7 +2271,7 @@
         <v>391</v>
       </c>
       <c r="AY6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AZ6" t="s">
         <v>391</v>
@@ -4477,7 +4477,7 @@
         <v>390</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
         <v>391</v>
@@ -4555,7 +4555,7 @@
         <v>391</v>
       </c>
       <c r="AG20" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AH20" t="s">
         <v>391</v>
@@ -4644,7 +4644,7 @@
         <v>390</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
         <v>391</v>
@@ -4752,7 +4752,7 @@
         <v>391</v>
       </c>
       <c r="AQ21" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AR21" t="s">
         <v>391</v>
@@ -6070,7 +6070,7 @@
         <v>391</v>
       </c>
       <c r="AK29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL29" t="s">
         <v>391</v>
@@ -6648,7 +6648,7 @@
         <v>390</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" t="s">
         <v>391</v>
@@ -6744,7 +6744,7 @@
         <v>391</v>
       </c>
       <c r="AM33" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AN33" t="s">
         <v>391</v>
@@ -8652,7 +8652,7 @@
         <v>390</v>
       </c>
       <c r="G45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
         <v>391</v>
@@ -8790,7 +8790,7 @@
         <v>391</v>
       </c>
       <c r="BA45" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="BB45" t="s">
         <v>391</v>
@@ -9487,7 +9487,7 @@
         <v>390</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H50" t="s">
         <v>391</v>
@@ -9529,7 +9529,7 @@
         <v>391</v>
       </c>
       <c r="U50" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="V50" t="s">
         <v>391</v>
@@ -9654,7 +9654,7 @@
         <v>390</v>
       </c>
       <c r="G51">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
         <v>391</v>
@@ -9696,7 +9696,7 @@
         <v>391</v>
       </c>
       <c r="U51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="V51" t="s">
         <v>391</v>
@@ -9732,13 +9732,13 @@
         <v>391</v>
       </c>
       <c r="AG51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AH51" t="s">
         <v>391</v>
       </c>
       <c r="AI51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AJ51" t="s">
         <v>391</v>
@@ -9762,7 +9762,7 @@
         <v>391</v>
       </c>
       <c r="AQ51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AR51" t="s">
         <v>391</v>
@@ -9774,7 +9774,7 @@
         <v>391</v>
       </c>
       <c r="AU51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AV51" t="s">
         <v>391</v>
@@ -9786,19 +9786,19 @@
         <v>391</v>
       </c>
       <c r="AY51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AZ51" t="s">
         <v>391</v>
       </c>
       <c r="BA51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="BB51" t="s">
         <v>391</v>
       </c>
       <c r="BC51" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:55">
@@ -11825,7 +11825,7 @@
         <v>390</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
         <v>391</v>
@@ -11843,7 +11843,7 @@
         <v>391</v>
       </c>
       <c r="M64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N64" t="s">
         <v>391</v>
@@ -11855,7 +11855,7 @@
         <v>391</v>
       </c>
       <c r="Q64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="R64" t="s">
         <v>391</v>
@@ -11867,7 +11867,7 @@
         <v>391</v>
       </c>
       <c r="U64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="V64" t="s">
         <v>391</v>
@@ -11879,7 +11879,7 @@
         <v>391</v>
       </c>
       <c r="Y64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Z64" t="s">
         <v>391</v>
@@ -11939,7 +11939,7 @@
         <v>391</v>
       </c>
       <c r="AS64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AT64" t="s">
         <v>391</v>
@@ -11951,19 +11951,19 @@
         <v>391</v>
       </c>
       <c r="AW64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AX64" t="s">
         <v>391</v>
       </c>
       <c r="AY64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AZ64" t="s">
         <v>391</v>
       </c>
       <c r="BA64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BB64" t="s">
         <v>391</v>
@@ -12493,7 +12493,7 @@
         <v>390</v>
       </c>
       <c r="G68">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H68" t="s">
         <v>391</v>
@@ -12613,7 +12613,7 @@
         <v>391</v>
       </c>
       <c r="AU68" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AV68" t="s">
         <v>391</v>
@@ -14330,7 +14330,7 @@
         <v>390</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H79" t="s">
         <v>391</v>
@@ -14414,7 +14414,7 @@
         <v>391</v>
       </c>
       <c r="AI79" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AJ79" t="s">
         <v>391</v>
@@ -23515,7 +23515,7 @@
         <v>390</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>391</v>
@@ -23533,7 +23533,7 @@
         <v>391</v>
       </c>
       <c r="M134" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N134" t="s">
         <v>391</v>
@@ -32867,7 +32867,7 @@
         <v>390</v>
       </c>
       <c r="G190">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H190" t="s">
         <v>391</v>
@@ -32999,7 +32999,7 @@
         <v>391</v>
       </c>
       <c r="AY190" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AZ190" t="s">
         <v>391</v>
@@ -35873,7 +35873,7 @@
         <v>390</v>
       </c>
       <c r="G208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H208" t="s">
         <v>391</v>
@@ -35987,7 +35987,7 @@
         <v>391</v>
       </c>
       <c r="AS208" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AT208" t="s">
         <v>391</v>
@@ -37877,7 +37877,7 @@
         <v>390</v>
       </c>
       <c r="G220">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H220" t="s">
         <v>391</v>
@@ -38003,7 +38003,7 @@
         <v>391</v>
       </c>
       <c r="AW220" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AX220" t="s">
         <v>391</v>
@@ -40215,7 +40215,7 @@
         <v>390</v>
       </c>
       <c r="G234">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H234" t="s">
         <v>391</v>
@@ -40353,7 +40353,7 @@
         <v>391</v>
       </c>
       <c r="BA234" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="BB234" t="s">
         <v>391</v>
@@ -44390,7 +44390,7 @@
         <v>390</v>
       </c>
       <c r="G259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H259" t="s">
         <v>391</v>
@@ -44432,7 +44432,7 @@
         <v>391</v>
       </c>
       <c r="U259" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="V259" t="s">
         <v>391</v>
@@ -45058,7 +45058,7 @@
         <v>390</v>
       </c>
       <c r="G263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>391</v>
@@ -45088,7 +45088,7 @@
         <v>391</v>
       </c>
       <c r="Q263" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R263" t="s">
         <v>391</v>
@@ -45225,7 +45225,7 @@
         <v>390</v>
       </c>
       <c r="G264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H264" t="s">
         <v>391</v>
@@ -45279,7 +45279,7 @@
         <v>391</v>
       </c>
       <c r="Y264" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z264" t="s">
         <v>391</v>

--- a/observer_output.xlsx
+++ b/observer_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16807" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16809" uniqueCount="392">
   <si>
     <t>الاسم</t>
   </si>
@@ -1977,6 +1977,9 @@
       <c r="H5" t="s">
         <v>391</v>
       </c>
+      <c r="I5" t="s">
+        <v>388</v>
+      </c>
       <c r="J5" t="s">
         <v>391</v>
       </c>
@@ -2033,6 +2036,9 @@
       </c>
       <c r="AB5" t="s">
         <v>391</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>388</v>
       </c>
       <c r="AD5" t="s">
         <v>391</v>
